--- a/SP_Sklad/TempLate/WayBill_Out_dable.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out_dable.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>sum</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>для реалізації</t>
-  </si>
-  <si>
-    <t>Помилуйко О.В.</t>
   </si>
   <si>
     <t xml:space="preserve">Наймену підприємства-виробника: </t>
@@ -1244,90 +1241,117 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1346,32 +1370,47 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1382,53 +1421,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,7 +1801,7 @@
   <dimension ref="A2:AF30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30:S30"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1844,14 +1841,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="H2" s="56"/>
       <c r="I2" s="30" t="e">
         <f>WayBillList_NUM</f>
@@ -1861,23 +1858,23 @@
         <v>3</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
       <c r="N2" s="41"/>
-      <c r="O2" s="125" t="e">
+      <c r="O2" s="119" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="P2" s="125"/>
+      <c r="P2" s="119"/>
       <c r="Q2" s="49"/>
-      <c r="R2" s="123" t="s">
+      <c r="R2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
       <c r="X2" s="97"/>
       <c r="Y2" s="30" t="e">
         <f>WayBillList_NUM</f>
@@ -1887,14 +1884,14 @@
         <v>3</v>
       </c>
       <c r="AA2" s="26"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
       <c r="AD2" s="100"/>
-      <c r="AE2" s="125" t="e">
+      <c r="AE2" s="119" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="AF2" s="125"/>
+      <c r="AF2" s="119"/>
     </row>
     <row r="4" spans="2:32" ht="16.5" thickBot="1">
       <c r="B4" s="24" t="s">
@@ -2204,46 +2201,46 @@
       <c r="AF16" s="10"/>
     </row>
     <row r="17" spans="1:32" ht="18.75" hidden="1" customHeight="1">
-      <c r="B17" s="117" t="e">
+      <c r="B17" s="115" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="R17" s="117" t="e">
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="R17" s="115" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
+      <c r="AB17" s="115"/>
+      <c r="AC17" s="115"/>
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="115"/>
+      <c r="AF17" s="115"/>
     </row>
     <row r="18" spans="1:32" ht="6" customHeight="1">
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2251,8 +2248,8 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -2265,12 +2262,12 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="C19" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2302,12 +2299,12 @@
       <c r="R19" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="S19" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
+      <c r="S19" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
       <c r="W19" s="104" t="s">
         <v>5</v>
       </c>
@@ -2342,13 +2339,13 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="121" t="e">
+      <c r="C20" s="123" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2393,13 +2390,13 @@
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="S20" s="121" t="e">
+      <c r="S20" s="123" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
       <c r="W20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2446,11 +2443,11 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="107" t="e">
+      <c r="F21" s="125" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="107"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="58" t="s">
         <v>0</v>
       </c>
@@ -2477,11 +2474,11 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="107" t="e">
+      <c r="V21" s="125" t="e">
         <f>IF(R22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="W21" s="107"/>
+      <c r="W21" s="125"/>
       <c r="X21" s="58" t="s">
         <v>0</v>
       </c>
@@ -2519,11 +2516,11 @@
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="108" t="e">
+      <c r="I22" s="116" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="J22" s="109"/>
+      <c r="J22" s="117"/>
       <c r="K22" s="44"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -2546,11 +2543,11 @@
       <c r="V22" s="21"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="108" t="e">
+      <c r="Y22" s="116" t="e">
         <f>IF(R22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="Z22" s="109"/>
+      <c r="Z22" s="117"/>
       <c r="AA22" s="99"/>
       <c r="AB22" s="32"/>
       <c r="AC22" s="32"/>
@@ -2566,13 +2563,13 @@
         <f>O21+P21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="110" t="e">
+      <c r="G23" s="111" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
       <c r="K23" s="44"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -2586,13 +2583,13 @@
         <f>AE21+AF21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W23" s="110" t="e">
+      <c r="W23" s="111" t="e">
         <f>IF(R22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="112"/>
       <c r="AA23" s="99"/>
       <c r="AB23" s="32"/>
       <c r="AC23" s="32"/>
@@ -2604,11 +2601,11 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2619,11 +2616,11 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -2820,59 +2817,70 @@
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114" t="e">
+      <c r="C30" s="108"/>
+      <c r="D30" s="110" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="115" t="s">
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="R30" s="113" t="s">
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="R30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="S30" s="113"/>
-      <c r="T30" s="114" t="e">
+      <c r="S30" s="108"/>
+      <c r="T30" s="110" t="e">
         <f>IF(R28 &lt; 0,S28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="115" t="s">
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="R17:AF17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="T8:AF8"/>
+    <mergeCell ref="T12:AF12"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="I22:J22"/>
@@ -2884,23 +2892,12 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D12:P12"/>
-    <mergeCell ref="R17:AF17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="T8:AF8"/>
-    <mergeCell ref="T12:AF12"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AF30"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G30:I30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,8 +2911,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2937,35 +2934,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2974,79 +2971,79 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="63"/>
-      <c r="C4" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146" t="e">
+      <c r="C4" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="63"/>
-      <c r="C5" s="146" t="e">
+      <c r="C5" s="139" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="63"/>
-      <c r="C6" s="146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146" t="e">
+      <c r="C6" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
     </row>
     <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63"/>
@@ -3055,40 +3052,40 @@
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="146" t="e">
+      <c r="F7" s="139" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
     </row>
     <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="62"/>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="147" t="e">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="146" t="s">
+      <c r="H8" s="140"/>
+      <c r="I8" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
     </row>
     <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="62"/>
@@ -3103,11 +3100,11 @@
       <c r="F9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="149" t="e">
+      <c r="G9" s="142" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="149"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
@@ -3134,65 +3131,65 @@
     </row>
     <row r="11" spans="2:14" s="1" customFormat="1"/>
     <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
       <c r="F12" s="132"/>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="129" t="s">
+      <c r="J12" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="K12" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="129" t="s">
+      <c r="L12" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="131" t="s">
+      <c r="M12" s="130" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="132"/>
     </row>
     <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="B13" s="130"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="133"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="133"/>
-      <c r="N13" s="134"/>
+      <c r="N13" s="135"/>
     </row>
     <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="138" t="e">
+      <c r="C14" s="147" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -3217,30 +3214,30 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="135" t="e">
+      <c r="M14" s="144" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="136"/>
+      <c r="N14" s="145"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
     <row r="17" spans="3:14" ht="290.25" customHeight="1">
-      <c r="C17" s="137" t="e">
+      <c r="C17" s="146" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="64"/>
@@ -3257,17 +3254,14 @@
       <c r="N18" s="50"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
+      <c r="C20" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
     <row r="22" spans="3:14" ht="12.75" customHeight="1"/>
@@ -3299,6 +3293,16 @@
     <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -3315,16 +3319,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4180,7 +4174,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75">
       <c r="B1" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -4194,15 +4188,15 @@
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="70"/>
-      <c r="M1" s="150" t="e">
+      <c r="M1" s="164" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
     </row>
     <row r="2" spans="2:15">
       <c r="J2" s="68"/>
@@ -4210,17 +4204,17 @@
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="70"/>
-      <c r="E3" s="150" t="e">
+      <c r="E3" s="164" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="151"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="68"/>
       <c r="K3" s="92" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -4233,13 +4227,13 @@
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="152" t="e">
+        <v>41</v>
+      </c>
+      <c r="E4" s="166" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="152"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="74"/>
@@ -4255,74 +4249,74 @@
       <c r="K5" s="71"/>
     </row>
     <row r="6" spans="2:15" ht="18" customHeight="1">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="153"/>
+      <c r="E6" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="119" t="s">
+      <c r="F6" s="153"/>
+      <c r="G6" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="160" t="s">
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="119" t="s">
+      <c r="L6" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="153"/>
+      <c r="N6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="153"/>
-      <c r="N6" s="156" t="s">
+      <c r="O6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="156" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="154"/>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="68"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1">
       <c r="B8" s="87" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="164" t="e">
+      <c r="C8" s="159" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="167" t="e">
+      <c r="D8" s="159"/>
+      <c r="E8" s="162" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="168"/>
+      <c r="F8" s="163"/>
       <c r="G8" s="88" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
@@ -4340,14 +4334,14 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="165"/>
-      <c r="M8" s="166"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="161"/>
       <c r="N8" s="94"/>
       <c r="O8" s="76"/>
     </row>
     <row r="9" spans="2:15" ht="18" customHeight="1">
       <c r="F9" s="77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="90" t="s">
         <v>0</v>
@@ -4358,10 +4352,10 @@
       </c>
       <c r="J9" s="68"/>
       <c r="K9" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="159"/>
+        <v>47</v>
+      </c>
+      <c r="L9" s="150"/>
+      <c r="M9" s="151"/>
       <c r="N9" s="93"/>
       <c r="O9" s="78"/>
     </row>
@@ -4379,7 +4373,7 @@
     </row>
     <row r="11" spans="2:15" ht="19.5" customHeight="1">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="86" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -4390,7 +4384,7 @@
       <c r="I11" s="82"/>
       <c r="J11" s="68"/>
       <c r="K11" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="84"/>
       <c r="M11" s="84"/>
@@ -4399,6 +4393,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D7"/>
@@ -4408,12 +4408,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
